--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_241__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_241__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5426,10 +5426,10 @@
                   <c:v>96.71473693847656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.60332107543945</c:v>
+                  <c:v>59.60331726074219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.21660995483398</c:v>
+                  <c:v>28.21661376953125</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56.30023956298828</c:v>
@@ -5444,22 +5444,22 @@
                   <c:v>90.07914733886719</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.12211608886719</c:v>
+                  <c:v>97.12210083007812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.56775665283203</c:v>
+                  <c:v>49.5677490234375</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.28948974609375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.14114379882812</c:v>
+                  <c:v>90.14112854003906</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>77.355712890625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39.99571990966797</c:v>
+                  <c:v>39.9957275390625</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>73.28230285644531</c:v>
@@ -5468,19 +5468,19 @@
                   <c:v>70.91729736328125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.78826332092285</c:v>
+                  <c:v>30.78826713562012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.557861328125</c:v>
+                  <c:v>97.55784606933594</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78.36990356445312</c:v>
+                  <c:v>78.36988830566406</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.38848876953125</c:v>
+                  <c:v>59.38849639892578</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63.24957275390625</c:v>
+                  <c:v>63.24956512451172</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>65.53347015380859</c:v>
@@ -5492,16 +5492,16 @@
                   <c:v>97.0103759765625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95.51708984375</c:v>
+                  <c:v>95.51707458496094</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>89.46859741210938</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.16993713378906</c:v>
+                  <c:v>97.16995239257812</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>67.6270751953125</c:v>
+                  <c:v>67.62706756591797</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>97.6788330078125</c:v>
@@ -5513,7 +5513,7 @@
                   <c:v>79.45721435546875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>97.01504516601562</c:v>
+                  <c:v>97.01506042480469</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>84.5050048828125</c:v>
@@ -5528,7 +5528,7 @@
                   <c:v>89.3074951171875</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.84396362304688</c:v>
+                  <c:v>96.84394836425781</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>59.57754516601562</c:v>
@@ -5537,7 +5537,7 @@
                   <c:v>93.12820434570312</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38.76577758789062</c:v>
+                  <c:v>38.76578521728516</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86.93643188476562</c:v>
@@ -5549,7 +5549,7 @@
                   <c:v>79.33488464355469</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>89.75668334960938</c:v>
+                  <c:v>89.75669860839844</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>96.86079406738281</c:v>
@@ -5561,10 +5561,10 @@
                   <c:v>96.754638671875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.10728454589844</c:v>
+                  <c:v>97.10726928710938</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>82.2152099609375</c:v>
+                  <c:v>82.21522521972656</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>85.91661071777344</c:v>
@@ -5576,13 +5576,13 @@
                   <c:v>75.18357849121094</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89.52328491210938</c:v>
+                  <c:v>89.52326965332031</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.56598281860352</c:v>
+                  <c:v>56.56597518920898</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>95.48965454101562</c:v>
+                  <c:v>95.48963928222656</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>78.30610656738281</c:v>
@@ -5591,13 +5591,13 @@
                   <c:v>53.14725875854492</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>97.25602722167969</c:v>
+                  <c:v>97.25604248046875</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>48.49649810791016</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>86.63966369628906</c:v>
+                  <c:v>86.63967895507812</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>97.79389953613281</c:v>
@@ -5606,10 +5606,10 @@
                   <c:v>96.94273376464844</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.26275634765625</c:v>
+                  <c:v>97.26277160644531</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>86.41191101074219</c:v>
+                  <c:v>86.41189575195312</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>96.53717041015625</c:v>
@@ -5624,7 +5624,7 @@
                   <c:v>61.82393264770508</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.50352478027344</c:v>
+                  <c:v>82.50350952148438</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>69.32231140136719</c:v>
@@ -5639,7 +5639,7 @@
                   <c:v>97.43463134765625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.85149955749512</c:v>
+                  <c:v>27.85150146484375</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>64.44757080078125</c:v>
@@ -5648,16 +5648,16 @@
                   <c:v>86.06544494628906</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>60.78568267822266</c:v>
+                  <c:v>60.78567886352539</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>82.04820251464844</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>62.00074005126953</c:v>
+                  <c:v>62.00072860717773</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>52.93630218505859</c:v>
+                  <c:v>52.93630599975586</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.429931640625</c:v>
@@ -5669,7 +5669,7 @@
                   <c:v>85.03160095214844</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>61.23135757446289</c:v>
+                  <c:v>61.23135375976562</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>91.59864807128906</c:v>
@@ -5684,7 +5684,7 @@
                   <c:v>81.13603210449219</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>63.19347763061523</c:v>
+                  <c:v>63.19347381591797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>59.60332107543945</v>
+        <v>59.60331726074219</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>28.21660995483398</v>
+        <v>28.21661376953125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>97.2368</v>
       </c>
       <c r="F11">
-        <v>97.12211608886719</v>
+        <v>97.12210083007812</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>49.56775665283203</v>
+        <v>49.5677490234375</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F14">
-        <v>90.14114379882812</v>
+        <v>90.14112854003906</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>40.3385</v>
       </c>
       <c r="F16">
-        <v>39.99571990966797</v>
+        <v>39.9957275390625</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>30.78826332092285</v>
+        <v>30.78826713562012</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>97.7124</v>
       </c>
       <c r="F20">
-        <v>97.557861328125</v>
+        <v>97.55784606933594</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>80.21729999999999</v>
       </c>
       <c r="F21">
-        <v>78.36990356445312</v>
+        <v>78.36988830566406</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>59.38848876953125</v>
+        <v>59.38849639892578</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>63.24957275390625</v>
+        <v>63.24956512451172</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>94.6755</v>
       </c>
       <c r="F27">
-        <v>95.51708984375</v>
+        <v>95.51707458496094</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>97.328</v>
       </c>
       <c r="F29">
-        <v>97.16993713378906</v>
+        <v>97.16995239257812</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>67.24550000000001</v>
       </c>
       <c r="F30">
-        <v>67.6270751953125</v>
+        <v>67.62706756591797</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>97.2676</v>
       </c>
       <c r="F34">
-        <v>97.01504516601562</v>
+        <v>97.01506042480469</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.84396362304688</v>
+        <v>96.84394836425781</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>38.76577758789062</v>
+        <v>38.76578521728516</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>90.6163</v>
       </c>
       <c r="F46">
-        <v>89.75668334960938</v>
+        <v>89.75669860839844</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>97.10728454589844</v>
+        <v>97.10726928710938</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>83.31910000000001</v>
       </c>
       <c r="F51">
-        <v>82.2152099609375</v>
+        <v>82.21522521972656</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>89.52328491210938</v>
+        <v>89.52326965332031</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>56.35</v>
       </c>
       <c r="F56">
-        <v>56.56598281860352</v>
+        <v>56.56597518920898</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>95.4624</v>
       </c>
       <c r="F57">
-        <v>95.48965454101562</v>
+        <v>95.48963928222656</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>97.3549</v>
       </c>
       <c r="F60">
-        <v>97.25602722167969</v>
+        <v>97.25604248046875</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>87.61150000000001</v>
       </c>
       <c r="F62">
-        <v>86.63966369628906</v>
+        <v>86.63967895507812</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>97.21169999999999</v>
       </c>
       <c r="F65">
-        <v>97.26275634765625</v>
+        <v>97.26277160644531</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>89.3086</v>
       </c>
       <c r="F66">
-        <v>86.41191101074219</v>
+        <v>86.41189575195312</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.50352478027344</v>
+        <v>82.50350952148438</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>27.85149955749512</v>
+        <v>27.85150146484375</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>60.78568267822266</v>
+        <v>60.78567886352539</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>61.7399</v>
       </c>
       <c r="F81">
-        <v>62.00074005126953</v>
+        <v>62.00072860717773</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>52.93630218505859</v>
+        <v>52.93630599975586</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>61.23135757446289</v>
+        <v>61.23135375976562</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>64.253</v>
       </c>
       <c r="F91">
-        <v>63.19347763061523</v>
+        <v>63.19347381591797</v>
       </c>
     </row>
     <row r="92" spans="1:6">
